--- a/tut05/output/0501CS11.xlsx
+++ b/tut05/output/0501CS11.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.775510204081633</v>
+        <v>5.78</v>
       </c>
       <c r="C6" t="n">
-        <v>5.272727272727272</v>
+        <v>5.27</v>
       </c>
       <c r="D6" t="n">
-        <v>5.674418604651163</v>
+        <v>5.67</v>
       </c>
       <c r="E6" t="n">
-        <v>5.914893617021277</v>
+        <v>5.91</v>
       </c>
       <c r="F6" t="n">
-        <v>6.261904761904762</v>
+        <v>6.26</v>
       </c>
       <c r="G6" t="n">
-        <v>6.675</v>
+        <v>6.67</v>
       </c>
       <c r="H6" t="n">
-        <v>6.902439024390244</v>
+        <v>6.9</v>
       </c>
       <c r="I6" t="n">
         <v>6.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.775510204081633</v>
+        <v>5.78</v>
       </c>
       <c r="C8" t="n">
-        <v>5.537634408602151</v>
+        <v>5.54</v>
       </c>
       <c r="D8" t="n">
-        <v>5.580882352941177</v>
+        <v>5.58</v>
       </c>
       <c r="E8" t="n">
-        <v>5.666666666666667</v>
+        <v>5.67</v>
       </c>
       <c r="F8" t="n">
-        <v>5.777777777777778</v>
+        <v>5.78</v>
       </c>
       <c r="G8" t="n">
-        <v>5.913207547169812</v>
+        <v>5.91</v>
       </c>
       <c r="H8" t="n">
-        <v>6.045751633986928</v>
+        <v>6.05</v>
       </c>
       <c r="I8" t="n">
-        <v>6.138728323699422</v>
+        <v>6.14</v>
       </c>
     </row>
   </sheetData>
